--- a/AG_nais_einheiten_unique_v2.xlsx
+++ b/AG_nais_einheiten_unique_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C373E0-D01A-44EF-9599-32B80BAC528C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC12764-83FA-430E-95DB-6B70F3C9BB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2274,14 +2274,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.7890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2292,7 +2294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2306,7 +2308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>15</v>
       </c>
@@ -2320,7 +2322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>80</v>
       </c>
@@ -2334,7 +2336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>161</v>
       </c>
@@ -2348,7 +2350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>268</v>
       </c>
@@ -2362,7 +2364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>370</v>
       </c>
@@ -2376,7 +2378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>413</v>
       </c>
@@ -2390,7 +2392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>454</v>
       </c>
@@ -2404,7 +2406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>499</v>
       </c>
@@ -2418,7 +2420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>500</v>
       </c>
@@ -2432,7 +2434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>512</v>
       </c>
@@ -2446,7 +2448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>657</v>
       </c>
@@ -2460,7 +2462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>717</v>
       </c>
@@ -2474,7 +2476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1160</v>
       </c>
@@ -2488,7 +2490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1249</v>
       </c>
@@ -2502,7 +2504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1274</v>
       </c>
@@ -2516,7 +2518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1317</v>
       </c>
@@ -2530,7 +2532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1758</v>
       </c>
@@ -2544,7 +2546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1927</v>
       </c>
@@ -2558,7 +2560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2082</v>
       </c>
@@ -2572,7 +2574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3262</v>
       </c>
@@ -2586,7 +2588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3729</v>
       </c>
@@ -2600,7 +2602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3736</v>
       </c>
@@ -2614,7 +2616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3756</v>
       </c>
@@ -2628,7 +2630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3839</v>
       </c>
@@ -2642,7 +2644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>4007</v>
       </c>
@@ -2656,7 +2658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>4009</v>
       </c>
@@ -2670,7 +2672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>4209</v>
       </c>
@@ -2684,7 +2686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>4243</v>
       </c>
@@ -2698,7 +2700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>4259</v>
       </c>
@@ -2712,7 +2714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>4301</v>
       </c>
@@ -2726,7 +2728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>4341</v>
       </c>
@@ -2740,7 +2742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>4377</v>
       </c>
@@ -2754,7 +2756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>4386</v>
       </c>
@@ -2768,7 +2770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>4446</v>
       </c>
@@ -2782,7 +2784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>4562</v>
       </c>
@@ -2796,7 +2798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>4981</v>
       </c>
@@ -2810,7 +2812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>5267</v>
       </c>
@@ -2824,7 +2826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>5456</v>
       </c>
@@ -2838,7 +2840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>5646</v>
       </c>
@@ -2852,7 +2854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>5704</v>
       </c>
@@ -2866,7 +2868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>6778</v>
       </c>
@@ -2880,7 +2882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>7162</v>
       </c>
@@ -2894,7 +2896,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>7166</v>
       </c>
@@ -2908,7 +2910,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>7169</v>
       </c>
@@ -2922,7 +2924,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>7183</v>
       </c>
@@ -2936,7 +2938,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>7188</v>
       </c>
@@ -2950,7 +2952,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>7249</v>
       </c>
@@ -2964,7 +2966,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>7274</v>
       </c>
@@ -2978,7 +2980,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>7294</v>
       </c>
@@ -2992,7 +2994,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>7373</v>
       </c>
@@ -3006,7 +3008,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>7432</v>
       </c>
@@ -3020,7 +3022,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>7442</v>
       </c>
@@ -3034,7 +3036,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>7494</v>
       </c>
@@ -3048,7 +3050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>7513</v>
       </c>
@@ -3062,7 +3064,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>7525</v>
       </c>
@@ -3076,7 +3078,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>7532</v>
       </c>
@@ -3090,7 +3092,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>7561</v>
       </c>
@@ -3104,7 +3106,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>7571</v>
       </c>
@@ -3118,7 +3120,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>7625</v>
       </c>
@@ -3132,7 +3134,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>8194</v>
       </c>
@@ -3146,7 +3148,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>8287</v>
       </c>
@@ -3160,7 +3162,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>8307</v>
       </c>
@@ -3174,7 +3176,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>8405</v>
       </c>
@@ -3188,7 +3190,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>8832</v>
       </c>
@@ -3202,7 +3204,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>9063</v>
       </c>
@@ -3216,7 +3218,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>9098</v>
       </c>
@@ -3230,7 +3232,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>9385</v>
       </c>
@@ -3244,7 +3246,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>9461</v>
       </c>
@@ -3258,7 +3260,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>9467</v>
       </c>
@@ -3272,7 +3274,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>9809</v>
       </c>
@@ -3286,7 +3288,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>9833</v>
       </c>
@@ -3300,7 +3302,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>9856</v>
       </c>
@@ -3314,7 +3316,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>9869</v>
       </c>
@@ -3328,7 +3330,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>10039</v>
       </c>
@@ -3342,7 +3344,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>10061</v>
       </c>
@@ -3356,7 +3358,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>10156</v>
       </c>
@@ -3370,7 +3372,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>10209</v>
       </c>
@@ -3384,7 +3386,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>10210</v>
       </c>
@@ -3398,7 +3400,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>10216</v>
       </c>
@@ -3412,7 +3414,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>10370</v>
       </c>
@@ -3426,7 +3428,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>10372</v>
       </c>
@@ -3440,7 +3442,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>10464</v>
       </c>
@@ -3454,7 +3456,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>10824</v>
       </c>
@@ -3468,7 +3470,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>10840</v>
       </c>
@@ -3482,7 +3484,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>10890</v>
       </c>
@@ -3496,7 +3498,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>11388</v>
       </c>
@@ -3510,7 +3512,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>11805</v>
       </c>
@@ -3524,7 +3526,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>11806</v>
       </c>
@@ -3538,7 +3540,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>11977</v>
       </c>
@@ -3552,7 +3554,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>11996</v>
       </c>
@@ -3566,7 +3568,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>12001</v>
       </c>
@@ -3580,7 +3582,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>12017</v>
       </c>
@@ -3594,7 +3596,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>12135</v>
       </c>
@@ -3608,7 +3610,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>12471</v>
       </c>
@@ -3622,7 +3624,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>13062</v>
       </c>
@@ -3636,7 +3638,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>14295</v>
       </c>
@@ -3650,7 +3652,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>14366</v>
       </c>
@@ -3664,7 +3666,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>14372</v>
       </c>
@@ -3678,7 +3680,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>15193</v>
       </c>
@@ -3692,7 +3694,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>15198</v>
       </c>
@@ -3706,7 +3708,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>15236</v>
       </c>
@@ -3720,7 +3722,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>15336</v>
       </c>
@@ -3734,7 +3736,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>15418</v>
       </c>
@@ -3748,7 +3750,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>15438</v>
       </c>
@@ -3762,7 +3764,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>15676</v>
       </c>
@@ -3776,7 +3778,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>15819</v>
       </c>
@@ -3790,7 +3792,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>16531</v>
       </c>
@@ -3804,7 +3806,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>17804</v>
       </c>
@@ -3818,7 +3820,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>17898</v>
       </c>
@@ -3832,7 +3834,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>18211</v>
       </c>
@@ -3846,7 +3848,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>18220</v>
       </c>
@@ -3860,7 +3862,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>18237</v>
       </c>
@@ -3874,7 +3876,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>18284</v>
       </c>
@@ -3888,7 +3890,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>18336</v>
       </c>
@@ -3902,7 +3904,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>18506</v>
       </c>
@@ -3916,7 +3918,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>18511</v>
       </c>
@@ -3930,7 +3932,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>18515</v>
       </c>
@@ -3944,7 +3946,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>18520</v>
       </c>
@@ -3958,7 +3960,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>18855</v>
       </c>
@@ -3972,7 +3974,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>18952</v>
       </c>
@@ -3986,7 +3988,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>19042</v>
       </c>
@@ -4000,7 +4002,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>19051</v>
       </c>
@@ -4014,7 +4016,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>19059</v>
       </c>
@@ -4028,7 +4030,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>19654</v>
       </c>
@@ -4042,7 +4044,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>19661</v>
       </c>
@@ -4056,7 +4058,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>20470</v>
       </c>
@@ -4070,7 +4072,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>20601</v>
       </c>
@@ -4084,7 +4086,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>21023</v>
       </c>
@@ -4098,7 +4100,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>21431</v>
       </c>
@@ -4112,7 +4114,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>22352</v>
       </c>
@@ -4126,7 +4128,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>22361</v>
       </c>
@@ -4140,7 +4142,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>22443</v>
       </c>
@@ -4154,7 +4156,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>22520</v>
       </c>
@@ -4168,7 +4170,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>22691</v>
       </c>
@@ -4182,7 +4184,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>22867</v>
       </c>
@@ -4196,7 +4198,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>23056</v>
       </c>
@@ -4210,7 +4212,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>23403</v>
       </c>
@@ -4224,7 +4226,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>23485</v>
       </c>
@@ -4238,7 +4240,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>23486</v>
       </c>
@@ -4252,7 +4254,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>23491</v>
       </c>
@@ -4266,7 +4268,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>23537</v>
       </c>
@@ -4280,7 +4282,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>23568</v>
       </c>
@@ -4294,7 +4296,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>23576</v>
       </c>
@@ -4308,7 +4310,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>23589</v>
       </c>
@@ -4322,7 +4324,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>23638</v>
       </c>
@@ -4336,7 +4338,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>23657</v>
       </c>
@@ -4350,7 +4352,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>23686</v>
       </c>
@@ -4364,7 +4366,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>23689</v>
       </c>
@@ -4378,7 +4380,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>23907</v>
       </c>
@@ -4392,7 +4394,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>23935</v>
       </c>
@@ -4406,7 +4408,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>24571</v>
       </c>
@@ -4420,7 +4422,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>24577</v>
       </c>
@@ -4434,7 +4436,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>24589</v>
       </c>
@@ -4448,7 +4450,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>24607</v>
       </c>
@@ -4462,7 +4464,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>24627</v>
       </c>
@@ -4476,7 +4478,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>24648</v>
       </c>
@@ -4490,7 +4492,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>24658</v>
       </c>
@@ -4504,7 +4506,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>24663</v>
       </c>
@@ -4518,7 +4520,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>24664</v>
       </c>
@@ -4532,7 +4534,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>24667</v>
       </c>
@@ -4546,7 +4548,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>24728</v>
       </c>
@@ -4560,7 +4562,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>24784</v>
       </c>
@@ -4574,7 +4576,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>24787</v>
       </c>
@@ -4588,7 +4590,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>24820</v>
       </c>
@@ -4602,7 +4604,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>24845</v>
       </c>
@@ -4616,7 +4618,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>25043</v>
       </c>
@@ -4630,7 +4632,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>25206</v>
       </c>
@@ -4644,7 +4646,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>25414</v>
       </c>
@@ -4658,7 +4660,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>25421</v>
       </c>
@@ -4672,7 +4674,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>25425</v>
       </c>
@@ -4686,7 +4688,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>25454</v>
       </c>
@@ -4700,7 +4702,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>25455</v>
       </c>
@@ -4714,7 +4716,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>25483</v>
       </c>
@@ -4728,7 +4730,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>25487</v>
       </c>
@@ -4742,7 +4744,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>25521</v>
       </c>
@@ -4756,7 +4758,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>25534</v>
       </c>
@@ -4770,7 +4772,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>25635</v>
       </c>
@@ -4784,7 +4786,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>25682</v>
       </c>
@@ -4798,7 +4800,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>26107</v>
       </c>
@@ -4812,7 +4814,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>26221</v>
       </c>
@@ -4826,7 +4828,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>26337</v>
       </c>
@@ -4840,7 +4842,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>26493</v>
       </c>
@@ -4854,7 +4856,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>26497</v>
       </c>
@@ -4868,7 +4870,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>26640</v>
       </c>
@@ -4882,7 +4884,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>26998</v>
       </c>
@@ -4896,7 +4898,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>27013</v>
       </c>
@@ -4910,7 +4912,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>27034</v>
       </c>
@@ -4924,7 +4926,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>27061</v>
       </c>
@@ -4938,7 +4940,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>27068</v>
       </c>
@@ -4952,7 +4954,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>27307</v>
       </c>
@@ -4966,7 +4968,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>27373</v>
       </c>
@@ -4980,7 +4982,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>27443</v>
       </c>
@@ -4994,7 +4996,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>27447</v>
       </c>
@@ -5008,7 +5010,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>27768</v>
       </c>
@@ -5022,7 +5024,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>28188</v>
       </c>
@@ -5036,7 +5038,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>28252</v>
       </c>
@@ -5050,7 +5052,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>28258</v>
       </c>
@@ -5064,7 +5066,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>28293</v>
       </c>
@@ -5078,7 +5080,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>28346</v>
       </c>
@@ -5092,7 +5094,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>28347</v>
       </c>
@@ -5106,7 +5108,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>28348</v>
       </c>
@@ -5120,7 +5122,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>28349</v>
       </c>
@@ -5134,7 +5136,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>28396</v>
       </c>
@@ -5148,7 +5150,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>28421</v>
       </c>
@@ -5162,7 +5164,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>28425</v>
       </c>
@@ -5176,7 +5178,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>28445</v>
       </c>
@@ -5190,7 +5192,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>28568</v>
       </c>
@@ -5204,7 +5206,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>28584</v>
       </c>
@@ -5218,7 +5220,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>28661</v>
       </c>
@@ -5232,7 +5234,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>29521</v>
       </c>
@@ -5246,7 +5248,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>29944</v>
       </c>
@@ -5260,7 +5262,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>30014</v>
       </c>
@@ -5274,7 +5276,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>30694</v>
       </c>
@@ -5288,7 +5290,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>30695</v>
       </c>
@@ -5302,7 +5304,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>30745</v>
       </c>
@@ -5316,7 +5318,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>30849</v>
       </c>
@@ -5330,7 +5332,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>30858</v>
       </c>
@@ -5344,7 +5346,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>30887</v>
       </c>
@@ -5358,7 +5360,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>30898</v>
       </c>
@@ -5372,7 +5374,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>30915</v>
       </c>
@@ -5386,7 +5388,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>31065</v>
       </c>
@@ -5400,7 +5402,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>31183</v>
       </c>
@@ -5414,7 +5416,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>31199</v>
       </c>
@@ -5428,7 +5430,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>31200</v>
       </c>
@@ -5442,7 +5444,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>31351</v>
       </c>
@@ -5456,7 +5458,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>31353</v>
       </c>
@@ -5470,7 +5472,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>31638</v>
       </c>
@@ -5484,7 +5486,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>31685</v>
       </c>
@@ -5498,7 +5500,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>31730</v>
       </c>
@@ -5512,7 +5514,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>31751</v>
       </c>
@@ -5526,7 +5528,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>31755</v>
       </c>
@@ -5540,7 +5542,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>31762</v>
       </c>
@@ -5554,7 +5556,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>31763</v>
       </c>
@@ -5568,7 +5570,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>31798</v>
       </c>
@@ -5582,7 +5584,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>31819</v>
       </c>
@@ -5596,7 +5598,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>31881</v>
       </c>
@@ -5610,7 +5612,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>31979</v>
       </c>
@@ -5624,7 +5626,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>32022</v>
       </c>
@@ -5638,7 +5640,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>32023</v>
       </c>
@@ -5652,7 +5654,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>32206</v>
       </c>
@@ -5666,7 +5668,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>32248</v>
       </c>
@@ -5680,7 +5682,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>32250</v>
       </c>
@@ -5694,7 +5696,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>32251</v>
       </c>
@@ -5708,7 +5710,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>32253</v>
       </c>
@@ -5722,7 +5724,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>32327</v>
       </c>
@@ -5736,7 +5738,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>32370</v>
       </c>
@@ -5750,7 +5752,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>32372</v>
       </c>
@@ -5764,7 +5766,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>32373</v>
       </c>
@@ -5778,7 +5780,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>32375</v>
       </c>
@@ -5792,7 +5794,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>32452</v>
       </c>
@@ -5806,7 +5808,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>32542</v>
       </c>
@@ -5820,7 +5822,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>32580</v>
       </c>
@@ -5834,7 +5836,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>33453</v>
       </c>
@@ -5848,7 +5850,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>33767</v>
       </c>
@@ -5862,7 +5864,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>34094</v>
       </c>
@@ -5876,7 +5878,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>34263</v>
       </c>
@@ -5890,7 +5892,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>34328</v>
       </c>
@@ -5904,7 +5906,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>35294</v>
       </c>
@@ -5918,7 +5920,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>35944</v>
       </c>
@@ -5932,7 +5934,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>36322</v>
       </c>
@@ -5946,7 +5948,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>36325</v>
       </c>
@@ -5960,7 +5962,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>36368</v>
       </c>
@@ -5974,7 +5976,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>36393</v>
       </c>
@@ -5988,7 +5990,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>36416</v>
       </c>
@@ -6002,7 +6004,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>36510</v>
       </c>
@@ -6016,7 +6018,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>36551</v>
       </c>
@@ -6030,7 +6032,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>36677</v>
       </c>
@@ -6044,7 +6046,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>36680</v>
       </c>
@@ -6058,7 +6060,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>36800</v>
       </c>
@@ -6072,7 +6074,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>36895</v>
       </c>
@@ -6086,7 +6088,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>36958</v>
       </c>
@@ -6100,7 +6102,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>37170</v>
       </c>
@@ -6114,7 +6116,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>37199</v>
       </c>
@@ -6128,7 +6130,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>37252</v>
       </c>
@@ -6142,7 +6144,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>37258</v>
       </c>
@@ -6156,7 +6158,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>37265</v>
       </c>
@@ -6170,7 +6172,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>37269</v>
       </c>
@@ -6184,7 +6186,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>37274</v>
       </c>
@@ -6198,7 +6200,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>37279</v>
       </c>
@@ -6212,7 +6214,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>37290</v>
       </c>
@@ -6226,7 +6228,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>37320</v>
       </c>
@@ -6240,7 +6242,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>37366</v>
       </c>
@@ -6254,7 +6256,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>37395</v>
       </c>
@@ -6268,7 +6270,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>37447</v>
       </c>
@@ -6282,7 +6284,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>37496</v>
       </c>
@@ -6296,7 +6298,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>37528</v>
       </c>
@@ -6310,7 +6312,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>37530</v>
       </c>
@@ -6324,7 +6326,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>37555</v>
       </c>
@@ -6338,7 +6340,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>37564</v>
       </c>
@@ -6352,7 +6354,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>37567</v>
       </c>
@@ -6366,7 +6368,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>37570</v>
       </c>
@@ -6380,7 +6382,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>37582</v>
       </c>
@@ -6394,7 +6396,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>37601</v>
       </c>
@@ -6408,7 +6410,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>37604</v>
       </c>
@@ -6422,7 +6424,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>37679</v>
       </c>
@@ -6436,7 +6438,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>37701</v>
       </c>
@@ -6450,7 +6452,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>37916</v>
       </c>
@@ -6464,7 +6466,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>37984</v>
       </c>
@@ -6478,7 +6480,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>38007</v>
       </c>
@@ -6492,7 +6494,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>38008</v>
       </c>
@@ -6506,7 +6508,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>38142</v>
       </c>
@@ -6520,7 +6522,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>38282</v>
       </c>
@@ -6534,7 +6536,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>38494</v>
       </c>
@@ -6548,7 +6550,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>38816</v>
       </c>
@@ -6562,7 +6564,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>38842</v>
       </c>
@@ -6576,7 +6578,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>38850</v>
       </c>
@@ -6590,7 +6592,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>38868</v>
       </c>
@@ -6604,7 +6606,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>38919</v>
       </c>
@@ -6618,7 +6620,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>38920</v>
       </c>
@@ -6632,7 +6634,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>38951</v>
       </c>
@@ -6646,7 +6648,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>39023</v>
       </c>
@@ -6660,7 +6662,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>39219</v>
       </c>
@@ -6674,7 +6676,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>39238</v>
       </c>
@@ -6688,7 +6690,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>39253</v>
       </c>
@@ -6702,7 +6704,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>39279</v>
       </c>
@@ -6716,7 +6718,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>39362</v>
       </c>
@@ -6730,7 +6732,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>39511</v>
       </c>
@@ -6744,7 +6746,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>39558</v>
       </c>
@@ -6758,7 +6760,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>39786</v>
       </c>
@@ -6772,7 +6774,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>40281</v>
       </c>
@@ -6786,7 +6788,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>40770</v>
       </c>
@@ -6800,7 +6802,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>40813</v>
       </c>
@@ -6814,7 +6816,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>40849</v>
       </c>
@@ -6828,7 +6830,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>41332</v>
       </c>
@@ -6842,7 +6844,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>41333</v>
       </c>
@@ -6856,7 +6858,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>41341</v>
       </c>
@@ -6870,7 +6872,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>41343</v>
       </c>
@@ -6884,7 +6886,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>41586</v>
       </c>
@@ -6898,7 +6900,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>42064</v>
       </c>
@@ -6912,7 +6914,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>42378</v>
       </c>
@@ -6926,7 +6928,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>42407</v>
       </c>
@@ -6940,7 +6942,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>42518</v>
       </c>
@@ -6954,7 +6956,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>42535</v>
       </c>
@@ -6968,7 +6970,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>42629</v>
       </c>
@@ -6982,7 +6984,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>42735</v>
       </c>
@@ -6996,7 +6998,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>42931</v>
       </c>
@@ -7010,7 +7012,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>43249</v>
       </c>
@@ -7024,7 +7026,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>43785</v>
       </c>
@@ -7038,7 +7040,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>43792</v>
       </c>
@@ -7052,7 +7054,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>43796</v>
       </c>
@@ -7066,7 +7068,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>43807</v>
       </c>
@@ -7080,7 +7082,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>43823</v>
       </c>
@@ -7094,7 +7096,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>43872</v>
       </c>
@@ -7108,7 +7110,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>43901</v>
       </c>
@@ -7122,7 +7124,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>44058</v>
       </c>
@@ -7136,7 +7138,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>44063</v>
       </c>
@@ -7150,7 +7152,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>44065</v>
       </c>
@@ -7164,7 +7166,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>44077</v>
       </c>
@@ -7178,7 +7180,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>44196</v>
       </c>
@@ -7192,7 +7194,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>44210</v>
       </c>
@@ -7206,7 +7208,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>44670</v>
       </c>
@@ -7220,7 +7222,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>44694</v>
       </c>
@@ -7234,7 +7236,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>44807</v>
       </c>
@@ -7248,7 +7250,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>44862</v>
       </c>
@@ -7262,7 +7264,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>44925</v>
       </c>
@@ -7276,7 +7278,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>45022</v>
       </c>
@@ -7290,7 +7292,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>45080</v>
       </c>
@@ -7304,7 +7306,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>45082</v>
       </c>
@@ -7318,7 +7320,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>46365</v>
       </c>
@@ -7332,7 +7334,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>47007</v>
       </c>
@@ -7346,7 +7348,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>47061</v>
       </c>
@@ -7360,7 +7362,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>47066</v>
       </c>
@@ -7374,7 +7376,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>47087</v>
       </c>
@@ -7388,7 +7390,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>47109</v>
       </c>
@@ -7402,7 +7404,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>47123</v>
       </c>
@@ -7416,7 +7418,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>47138</v>
       </c>
@@ -7430,7 +7432,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>47165</v>
       </c>
@@ -7444,7 +7446,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>47166</v>
       </c>
@@ -7458,7 +7460,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>47241</v>
       </c>
@@ -7472,7 +7474,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>47871</v>
       </c>
@@ -7486,7 +7488,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>47939</v>
       </c>
@@ -7500,7 +7502,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>47963</v>
       </c>
@@ -7514,7 +7516,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>48006</v>
       </c>
@@ -7528,7 +7530,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>48034</v>
       </c>
@@ -7542,7 +7544,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>48036</v>
       </c>
@@ -7556,7 +7558,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>48125</v>
       </c>
@@ -7570,7 +7572,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>48161</v>
       </c>
@@ -7584,7 +7586,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>48166</v>
       </c>
@@ -7598,7 +7600,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>48182</v>
       </c>
@@ -7612,7 +7614,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>48232</v>
       </c>
@@ -7626,7 +7628,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>48246</v>
       </c>
@@ -7640,7 +7642,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>48485</v>
       </c>
@@ -7654,7 +7656,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>48598</v>
       </c>
@@ -7668,7 +7670,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>48610</v>
       </c>
@@ -7682,7 +7684,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>48618</v>
       </c>
@@ -7696,7 +7698,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>48637</v>
       </c>
@@ -7710,7 +7712,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>48669</v>
       </c>
@@ -7724,7 +7726,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>48947</v>
       </c>
@@ -7738,7 +7740,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>49016</v>
       </c>
@@ -7752,7 +7754,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>49069</v>
       </c>
@@ -7766,7 +7768,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>49210</v>
       </c>
@@ -7780,7 +7782,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>49213</v>
       </c>
@@ -7794,7 +7796,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>49215</v>
       </c>
@@ -7808,7 +7810,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>49280</v>
       </c>
@@ -7822,7 +7824,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>49455</v>
       </c>
@@ -7836,7 +7838,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>49461</v>
       </c>
@@ -7850,7 +7852,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>49462</v>
       </c>
@@ -7864,7 +7866,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>49647</v>
       </c>
@@ -7878,7 +7880,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>49651</v>
       </c>
@@ -7892,7 +7894,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>49762</v>
       </c>
@@ -7906,7 +7908,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>49765</v>
       </c>
@@ -7920,7 +7922,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>49771</v>
       </c>
@@ -7934,7 +7936,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>49780</v>
       </c>
@@ -7948,7 +7950,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>49789</v>
       </c>
@@ -7962,7 +7964,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>49874</v>
       </c>
@@ -7976,7 +7978,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>49960</v>
       </c>
@@ -7990,7 +7992,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>49969</v>
       </c>
@@ -8004,7 +8006,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>50047</v>
       </c>
@@ -8018,7 +8020,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>50301</v>
       </c>
@@ -8032,7 +8034,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>50326</v>
       </c>
@@ -8046,7 +8048,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>50339</v>
       </c>
@@ -8060,7 +8062,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>50381</v>
       </c>
@@ -8074,7 +8076,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>50623</v>
       </c>
@@ -8088,7 +8090,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>50851</v>
       </c>
@@ -8102,7 +8104,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>50872</v>
       </c>
@@ -8116,7 +8118,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>50949</v>
       </c>
@@ -8130,7 +8132,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>50952</v>
       </c>
@@ -8144,7 +8146,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>50953</v>
       </c>
@@ -8158,7 +8160,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>51033</v>
       </c>
@@ -8172,7 +8174,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>51041</v>
       </c>
@@ -8186,7 +8188,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>51086</v>
       </c>
@@ -8200,7 +8202,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>51345</v>
       </c>
@@ -8214,7 +8216,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>51415</v>
       </c>
@@ -8228,7 +8230,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>51580</v>
       </c>
@@ -8242,7 +8244,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>51605</v>
       </c>
@@ -8256,7 +8258,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>51610</v>
       </c>
@@ -8270,7 +8272,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>51653</v>
       </c>
@@ -8284,7 +8286,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>51654</v>
       </c>
@@ -8298,7 +8300,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>51662</v>
       </c>
@@ -8312,7 +8314,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>51700</v>
       </c>
@@ -8326,7 +8328,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>51742</v>
       </c>
@@ -8340,7 +8342,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>51756</v>
       </c>
@@ -8354,7 +8356,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>51804</v>
       </c>
@@ -8368,7 +8370,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>51817</v>
       </c>
@@ -8382,7 +8384,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>51843</v>
       </c>
@@ -8396,7 +8398,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>51913</v>
       </c>
@@ -8410,7 +8412,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>51934</v>
       </c>
@@ -8424,7 +8426,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>51969</v>
       </c>
@@ -8438,7 +8440,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>52015</v>
       </c>
@@ -8452,7 +8454,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>52044</v>
       </c>
@@ -8466,7 +8468,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>52059</v>
       </c>
@@ -8480,7 +8482,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>52137</v>
       </c>
@@ -8494,7 +8496,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>52203</v>
       </c>
@@ -8508,7 +8510,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>52287</v>
       </c>
@@ -8522,7 +8524,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>52335</v>
       </c>
@@ -8536,7 +8538,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>52336</v>
       </c>
@@ -8550,7 +8552,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>52350</v>
       </c>
@@ -8564,7 +8566,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>52363</v>
       </c>
@@ -8578,7 +8580,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>52367</v>
       </c>
@@ -8592,7 +8594,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>52369</v>
       </c>
@@ -8606,7 +8608,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>52409</v>
       </c>
@@ -8620,7 +8622,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>52464</v>
       </c>
@@ -8634,7 +8636,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>52466</v>
       </c>
@@ -8648,7 +8650,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>52472</v>
       </c>
@@ -8662,7 +8664,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>52499</v>
       </c>
@@ -8676,7 +8678,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>52509</v>
       </c>
@@ -8690,7 +8692,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>52511</v>
       </c>
@@ -8704,7 +8706,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>52517</v>
       </c>
@@ -8718,7 +8720,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>52518</v>
       </c>
@@ -8732,7 +8734,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>52520</v>
       </c>
@@ -8746,7 +8748,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>52577</v>
       </c>
@@ -8760,7 +8762,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>52654</v>
       </c>
@@ -8774,7 +8776,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>52696</v>
       </c>
@@ -8788,7 +8790,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>52971</v>
       </c>
@@ -8802,7 +8804,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>53016</v>
       </c>
@@ -8816,7 +8818,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>53031</v>
       </c>
@@ -8830,7 +8832,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>53044</v>
       </c>
@@ -8844,7 +8846,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>53134</v>
       </c>
@@ -8858,7 +8860,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>53188</v>
       </c>
@@ -8872,7 +8874,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>53198</v>
       </c>
@@ -8886,7 +8888,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>53205</v>
       </c>
@@ -8900,7 +8902,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>53236</v>
       </c>
@@ -8914,7 +8916,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>53257</v>
       </c>
@@ -8928,7 +8930,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>53259</v>
       </c>
@@ -8942,7 +8944,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>53263</v>
       </c>
@@ -8956,7 +8958,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>53277</v>
       </c>
@@ -8970,7 +8972,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>53301</v>
       </c>
@@ -8984,7 +8986,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>53333</v>
       </c>
@@ -8998,7 +9000,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>53405</v>
       </c>
@@ -9012,7 +9014,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>53414</v>
       </c>
@@ -9026,7 +9028,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>53423</v>
       </c>
@@ -9040,7 +9042,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>53447</v>
       </c>
@@ -9054,7 +9056,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>53610</v>
       </c>
@@ -9068,7 +9070,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>53611</v>
       </c>
@@ -9082,7 +9084,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>53612</v>
       </c>
@@ -9096,7 +9098,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>53615</v>
       </c>
@@ -9110,7 +9112,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>53619</v>
       </c>
@@ -9124,7 +9126,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>53634</v>
       </c>
@@ -9138,7 +9140,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>53639</v>
       </c>
@@ -9152,7 +9154,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>53650</v>
       </c>
@@ -9166,7 +9168,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>53680</v>
       </c>
@@ -9180,7 +9182,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>53692</v>
       </c>
@@ -9194,7 +9196,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>53953</v>
       </c>
@@ -9208,7 +9210,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>53968</v>
       </c>
@@ -9222,7 +9224,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>53998</v>
       </c>
@@ -9236,7 +9238,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>54022</v>
       </c>
@@ -9250,7 +9252,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>54043</v>
       </c>
@@ -9264,7 +9266,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>54085</v>
       </c>
@@ -9278,7 +9280,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>54485</v>
       </c>
@@ -9292,7 +9294,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>54546</v>
       </c>
@@ -9306,7 +9308,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>54548</v>
       </c>
@@ -9320,7 +9322,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>54780</v>
       </c>
@@ -9334,7 +9336,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>54811</v>
       </c>
@@ -9348,7 +9350,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>54825</v>
       </c>
@@ -9362,7 +9364,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>54835</v>
       </c>
@@ -9376,7 +9378,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>54837</v>
       </c>
@@ -9390,7 +9392,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>54838</v>
       </c>
@@ -9404,7 +9406,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>54904</v>
       </c>
@@ -9418,7 +9420,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>54925</v>
       </c>
@@ -9432,7 +9434,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>54954</v>
       </c>
@@ -9446,7 +9448,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>54958</v>
       </c>
@@ -9460,7 +9462,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>54971</v>
       </c>
@@ -9474,7 +9476,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>54981</v>
       </c>
@@ -9488,7 +9490,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>54989</v>
       </c>
@@ -9502,7 +9504,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>55000</v>
       </c>
@@ -9516,7 +9518,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>55003</v>
       </c>
@@ -9530,7 +9532,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>55011</v>
       </c>
@@ -9544,7 +9546,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>55024</v>
       </c>
@@ -9558,7 +9560,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>55025</v>
       </c>
@@ -9572,7 +9574,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>55031</v>
       </c>
@@ -9586,7 +9588,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>55177</v>
       </c>
@@ -9600,7 +9602,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>55255</v>
       </c>
@@ -9614,7 +9616,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>55256</v>
       </c>
@@ -9628,7 +9630,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>55307</v>
       </c>
@@ -9642,7 +9644,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>55318</v>
       </c>
@@ -9656,7 +9658,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>55323</v>
       </c>
@@ -9670,7 +9672,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>55326</v>
       </c>
@@ -9684,7 +9686,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>55331</v>
       </c>
@@ -9698,7 +9700,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>55376</v>
       </c>
@@ -9712,7 +9714,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>55414</v>
       </c>
@@ -9726,7 +9728,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>55425</v>
       </c>
@@ -9740,7 +9742,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>55439</v>
       </c>
@@ -9754,7 +9756,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>55455</v>
       </c>
@@ -9768,7 +9770,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>55505</v>
       </c>
@@ -9782,7 +9784,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>55512</v>
       </c>
@@ -9796,7 +9798,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>55539</v>
       </c>
@@ -9810,7 +9812,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>55569</v>
       </c>
@@ -9824,7 +9826,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>55618</v>
       </c>
@@ -9838,7 +9840,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>55702</v>
       </c>
@@ -9852,7 +9854,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>55765</v>
       </c>
@@ -9866,7 +9868,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>55768</v>
       </c>
@@ -9880,7 +9882,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>55771</v>
       </c>
@@ -9894,7 +9896,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>55782</v>
       </c>
@@ -9908,7 +9910,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>55784</v>
       </c>
@@ -9922,7 +9924,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>55785</v>
       </c>
@@ -9936,7 +9938,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>55815</v>
       </c>
@@ -9950,7 +9952,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>55863</v>
       </c>
@@ -9964,7 +9966,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>55915</v>
       </c>
@@ -9978,7 +9980,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>55918</v>
       </c>
@@ -9992,7 +9994,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>55939</v>
       </c>
@@ -10006,7 +10008,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>56043</v>
       </c>
@@ -10020,7 +10022,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>56052</v>
       </c>
@@ -10034,7 +10036,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>56064</v>
       </c>
@@ -10048,7 +10050,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>56144</v>
       </c>
@@ -10062,7 +10064,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>56170</v>
       </c>
@@ -10076,7 +10078,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>56180</v>
       </c>
@@ -10090,7 +10092,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>56191</v>
       </c>
@@ -10104,7 +10106,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>56192</v>
       </c>
@@ -10118,7 +10120,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>56198</v>
       </c>
@@ -10132,7 +10134,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>56214</v>
       </c>
@@ -10146,7 +10148,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>56216</v>
       </c>
@@ -10160,7 +10162,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>56242</v>
       </c>
@@ -10174,7 +10176,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>56243</v>
       </c>
@@ -10188,7 +10190,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>56249</v>
       </c>
@@ -10202,7 +10204,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>56252</v>
       </c>
@@ -10216,7 +10218,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>56412</v>
       </c>
@@ -10230,7 +10232,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>56541</v>
       </c>
@@ -10244,7 +10246,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>56600</v>
       </c>
@@ -10258,7 +10260,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>56716</v>
       </c>
@@ -10272,7 +10274,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>56721</v>
       </c>
@@ -10286,7 +10288,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>56722</v>
       </c>
@@ -10300,7 +10302,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>56786</v>
       </c>
@@ -10314,7 +10316,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>56812</v>
       </c>
@@ -10328,7 +10330,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>56860</v>
       </c>
@@ -10342,7 +10344,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>56888</v>
       </c>
@@ -10356,7 +10358,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>56895</v>
       </c>
@@ -10370,7 +10372,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>56912</v>
       </c>
@@ -10384,7 +10386,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>56913</v>
       </c>
@@ -10398,7 +10400,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>56918</v>
       </c>
@@ -10412,7 +10414,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>56987</v>
       </c>
@@ -10426,7 +10428,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>56990</v>
       </c>
@@ -10440,7 +10442,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>57001</v>
       </c>
@@ -10454,7 +10456,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>57006</v>
       </c>
@@ -10468,7 +10470,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>57048</v>
       </c>
@@ -10482,7 +10484,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>57051</v>
       </c>
@@ -10496,7 +10498,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>57056</v>
       </c>
@@ -10510,7 +10512,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>57076</v>
       </c>
@@ -10524,7 +10526,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>57079</v>
       </c>
@@ -10538,7 +10540,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>57086</v>
       </c>
@@ -10552,7 +10554,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>57097</v>
       </c>
@@ -10566,7 +10568,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>57126</v>
       </c>
@@ -10580,7 +10582,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>57149</v>
       </c>
@@ -10594,7 +10596,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>57163</v>
       </c>
@@ -10608,7 +10610,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>57170</v>
       </c>
@@ -10622,7 +10624,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>57172</v>
       </c>
@@ -10636,7 +10638,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>57178</v>
       </c>
@@ -10650,7 +10652,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>57179</v>
       </c>
@@ -10664,7 +10666,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>57184</v>
       </c>
@@ -10678,7 +10680,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>57232</v>
       </c>
@@ -10692,7 +10694,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>57233</v>
       </c>
@@ -10706,7 +10708,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>57235</v>
       </c>
@@ -10720,7 +10722,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>57241</v>
       </c>
@@ -10734,7 +10736,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>57244</v>
       </c>
@@ -10748,7 +10750,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>57245</v>
       </c>
@@ -10762,7 +10764,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>57247</v>
       </c>
@@ -10776,7 +10778,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>57249</v>
       </c>
@@ -10790,7 +10792,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>57250</v>
       </c>
@@ -10804,7 +10806,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>57254</v>
       </c>
@@ -10818,7 +10820,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>57255</v>
       </c>
@@ -10832,7 +10834,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>57257</v>
       </c>
@@ -10846,7 +10848,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>57258</v>
       </c>
